--- a/Day_2/SalesData.xlsx
+++ b/Day_2/SalesData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chetan Sharma\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chetan Sharma\Desktop\ASDC\TOT\Day_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D0F674-3A30-4710-B64D-DE4674C9C008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF9B747-17DD-4610-AC38-27A62B75751D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -4759,123 +4759,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{40893E88-E94B-41A0-9946-721E9E884946}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="D3:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" measureFilter="1">
-      <items count="21">
-        <item x="11"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="15"/>
-        <item x="10"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="2"/>
-        <item x="14"/>
-        <item x="12"/>
-        <item x="17"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Profit" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="4" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="1" type="count" evalOrder="-1" id="1" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="5" filterVal="5"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D032AF9E-7671-4E07-930A-575542353BF5}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D032AF9E-7671-4E07-930A-575542353BF5}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -4991,6 +4875,122 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{40893E88-E94B-41A0-9946-721E9E884946}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="D3:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="21">
+        <item x="11"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="15"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="17"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Profit" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="1" type="count" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="5" filterVal="5"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -5325,8 +5325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4946438-51BF-48AD-907B-06011945939C}">
   <dimension ref="A3:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5438,8 +5438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E7" sqref="A1:I201"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:I201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
